--- a/biology/Médecine/Surentraînement/Surentraînement.xlsx
+++ b/biology/Médecine/Surentraînement/Surentraînement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Surentra%C3%AEnement</t>
+          <t>Surentraînement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En sport, le surentraînement (ou surentrainement[1]), ou plus précisément le syndrome de surentraînement, désigne un excès d'entraînement sportif pouvant être préjudiciable au sportif.
-Le surentraînement est un risque naissant de l'exploitation trop forte du corps qui fatigue et ne parvient plus à atteindre ses performances habituelles[2], tout comme la blessure causée ou aggravée par la fatigue[3]. Le repos est donc important et considéré comme une maintenance de leur outil de travail. Soigneusement minuté, il peut affecter la vie sociale, avec des sportifs fatigués et plus enclins à se blesser s'ils ont l'habitude de faire la fête, fortement encouragés à se coucher tôt et à ne pas se fatiguer dans leurs activités personnelles[4].
-Des études montrent un risque certain au-delà de huit heures d'activités sportives intensives par semaine[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En sport, le surentraînement (ou surentrainement), ou plus précisément le syndrome de surentraînement, désigne un excès d'entraînement sportif pouvant être préjudiciable au sportif.
+Le surentraînement est un risque naissant de l'exploitation trop forte du corps qui fatigue et ne parvient plus à atteindre ses performances habituelles, tout comme la blessure causée ou aggravée par la fatigue. Le repos est donc important et considéré comme une maintenance de leur outil de travail. Soigneusement minuté, il peut affecter la vie sociale, avec des sportifs fatigués et plus enclins à se blesser s'ils ont l'habitude de faire la fête, fortement encouragés à se coucher tôt et à ne pas se fatiguer dans leurs activités personnelles.
+Des études montrent un risque certain au-delà de huit heures d'activités sportives intensives par semaine.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Surentra%C3%AEnement</t>
+          <t>Surentraînement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Les causes du surentraînement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La prévention comme la guérison du syndrome de surentraînement passe par l’identification et la suppression de ses causes. Sinon, ce dernier reviendra systématiquement. Les causes principalement évoquées sont variées, et peuvent se combiner : 
 charge d’entraînement (volume et intensité) excessive ;
@@ -534,7 +548,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Surentra%C3%AEnement</t>
+          <t>Surentraînement</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,7 +566,9 @@
           <t>Les symptômes du surentraînement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les symptômes du surentraînement sont très variés, et pourraient être catégorisés de manière plus précise. Ils peuvent être objectifs (observables) ou subjectifs (décelables notamment par entretien). De manière globale et incomplète, on en retiendra les principales manifestations suivantes, qui peuvent se cumuler :
 chute inexpliquée (progressive ou soudaine) du niveau de performance ;
